--- a/SortCatalog/res-108 2019年上海高考物理二模-导出目录.xlsx
+++ b/SortCatalog/res-108 2019年上海高考物理二模-导出目录.xlsx
@@ -79,49 +79,49 @@
     <t>word导入数量(仅查看非导入属性)</t>
   </si>
   <si>
-    <t>1、2019宝山二模</t>
-  </si>
-  <si>
-    <t>2、2019崇明二模</t>
-  </si>
-  <si>
-    <t>3、2019长宁二模</t>
-  </si>
-  <si>
-    <t>4、2019奉贤二模</t>
-  </si>
-  <si>
-    <t>5、2019虹口二模</t>
-  </si>
-  <si>
-    <t>6、2019黄浦二模</t>
-  </si>
-  <si>
-    <t>7、2019静安二模</t>
-  </si>
-  <si>
-    <t>8、2019嘉定二模</t>
-  </si>
-  <si>
-    <t>9、2019金山二模</t>
-  </si>
-  <si>
-    <t>10、2019浦东二模</t>
-  </si>
-  <si>
-    <t>11、2019普陀二模</t>
-  </si>
-  <si>
-    <t>12、2019青浦二模</t>
-  </si>
-  <si>
-    <t>13、2019松江二模</t>
-  </si>
-  <si>
-    <t>14、2019徐汇二模</t>
-  </si>
-  <si>
-    <t>15、2019杨浦二模</t>
+    <t>1、1、2019宝山二模</t>
+  </si>
+  <si>
+    <t>2、2、2019崇明二模</t>
+  </si>
+  <si>
+    <t>3、3、2019长宁二模</t>
+  </si>
+  <si>
+    <t>4、4、2019奉贤二模</t>
+  </si>
+  <si>
+    <t>5、5、2019虹口二模</t>
+  </si>
+  <si>
+    <t>6、6、2019黄浦二模</t>
+  </si>
+  <si>
+    <t>7、7、2019静安二模</t>
+  </si>
+  <si>
+    <t>8、8、2019嘉定二模</t>
+  </si>
+  <si>
+    <t>9、9、2019金山二模</t>
+  </si>
+  <si>
+    <t>10、10、2019浦东二模</t>
+  </si>
+  <si>
+    <t>11、11、2019普陀二模</t>
+  </si>
+  <si>
+    <t>12、12、2019青浦二模</t>
+  </si>
+  <si>
+    <t>13、13、2019松江二模</t>
+  </si>
+  <si>
+    <t>14、14、2019徐汇二模</t>
+  </si>
+  <si>
+    <t>15、15、2019杨浦二模</t>
   </si>
   <si>
     <t>GW2019BBS01</t>
